--- a/How-Tos Documents and tools/calibration calculation.xlsx
+++ b/How-Tos Documents and tools/calibration calculation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kryptomine-my.sharepoint.com/personal/julian_bechtold_kryptomine_ch/Documents/Research and Development/Product-Design/3d Printer/Calibration/How Tos and Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kryptomine-my.sharepoint.com/personal/julian_bechtold_kryptomine_ch/Documents/Research and Development/Product-Design/3d Printer/3dPrinter-Calibration/How-Tos Documents and tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF4B824-93E9-4F52-90A9-269507868B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{BAF4B824-93E9-4F52-90A9-269507868B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321D962E-4DC9-4B16-881B-C1D4B11B6970}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F1B8B7D0-4C2A-4E95-A14F-059F41172FE1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>current steps</t>
   </si>
@@ -59,12 +59,18 @@
   </si>
   <si>
     <t>flow result</t>
+  </si>
+  <si>
+    <t>Extruder steps calculator (10mm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,16 +124,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8358066A-ED04-486E-955D-DFDE96A13F59}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,70 +463,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>91</v>
+      </c>
+      <c r="C3" s="7">
+        <f>10/A3*B3</f>
+        <v>60.666666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>98.5</v>
       </c>
-      <c r="B3" s="5">
-        <v>290</v>
-      </c>
-      <c r="C3" s="6">
-        <f>100/A3*B3</f>
-        <v>294.41624365482232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="4">
+        <v>90</v>
+      </c>
+      <c r="C7" s="7">
+        <f>100/A7*B7</f>
+        <v>91.370558375634516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>0.35</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B11" s="4">
         <v>89</v>
       </c>
-      <c r="C6" s="6">
-        <f>0.4*B6/A6</f>
+      <c r="C11" s="6">
+        <f>0.4*B11/A11</f>
         <v>101.71428571428572</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
